--- a/assets/disciplinas/LOT2025.xlsx
+++ b/assets/disciplinas/LOT2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Capacitar o aluno para identificar e aplicar os conceitos de Reatores Bioquímicos em diferentes bioprocessos (fermentativos e enzimáticos). Especificamente, capacitar o aluno para definir os tipos de biorreatores; para definir as diferentes formas de condução de um processo fermentativo empregando biorreatores, para realizar o equacionamento matemático do crescimento microbiano e da formação de produtos de interesse de um bioprocesso empregando biorreatores e para aplicação dos conceitos gerais dos reatores enzimáticos operados em diferentes fases.</t>
+    <t>1112574 - Inês Conceição Roberto</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1112574 - Inês Conceição Roberto</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução a biorreatores; processo descontínuo; processo contínuo; processo descontínuo alimentado e reatores enzimáticos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução a biorreatores: apresentação e classificação de reatores bioquímicos; interação microorganismos/meios para estabelecimento de condições para cálculos de biorreatores.2. Processo descontínuo: características gerais do processo contínuo; balanço material para célula, substrato e produto, em um único estágio com e sem reciclo de células; aplicação do processo contínuo (exemplos).3. Processo contínuo: características gerais do processo contínuo; balanço material para célula, substrato e produto, em um único estágio com e sem reciclo de células; aplicação do processo contínuo (exemplos).4. Processo descontínuo alimentado: características gerais do processo descontínuo alimentado; balanço material para célula e substrato, com volume variável, empregando vazão constante de alimentação; considerações sobre formação de produtos no processo descontínuo alimentado; aplicação do processo descontínuo alimentado (exemplos).5. Reatores enzimáticos: características gerais dos reatores enzimáticos; aplicação de processos enzimáticos (exemplos).</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Os alunos serão avaliados formalmente por duas provas teóricas. A ponderação das notas será de 50% para cada avaliação, ou seja: Média do período letivo normal = (P1 + P2 )/2</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão aprovados os alunos que obtiverem média igual ou maior que 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aos alunos que não obtiverem média igual ou maior que 5,0, será oferecido um programa de recuperação que será avaliado por uma prova final. Nesse caso, a média final do aluno será: Média final = (média do período letivo normal + nota prova final)/2 Serão aprovados os alunos que obtiverem média igual ou maior que 5,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1)  Aiba, S., Humphrey, A.E., Millis, N.F. Biochemical Engineering - 2ª Edição- 1973.2) Asenjo A., Merchuk, J.C. Bioreactor System Design-1995.3) Stanbury, D. and Whitaker, A. Principles af Fermentation Technology-1986.4) Lima, U.A., Aquarone, E., Borzani, W. Biotecnologia Industrial. Fundamentos Vol. 1, Engenharia Bioquímica Vol.2, Processos Fermentativos Vol.3. Ed.  Edgard Blucher, São Paulo, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,34 +613,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -663,85 +657,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2025.xlsx
+++ b/assets/disciplinas/LOT2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Capacitar o aluno para identificar e aplicar os conceitos de Reatores Bioquímicos em diferentes bioprocessos (fermentativos e enzimáticos). Especificamente, capacitar o aluno para definir os tipos de biorreatores; para definir as diferentes formas de condução de um processo fermentativo empregando biorreatores, para realizar o equacionamento matemático do crescimento microbiano e da formação de produtos de interesse de um bioprocesso empregando biorreatores e para aplicação dos conceitos gerais dos reatores enzimáticos operados em diferentes fases.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1112574 - Inês Conceição Roberto</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução a biorreatores; processo descontínuo; processo contínuo; processo descontínuo alimentado e reatores enzimáticos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução a biorreatores: apresentação e classificação de reatores bioquímicos; interação microorganismos/meios para estabelecimento de condições para cálculos de biorreatores.2. Processo descontínuo: características gerais do processo contínuo; balanço material para célula, substrato e produto, em um único estágio com e sem reciclo de células; aplicação do processo contínuo (exemplos).3. Processo contínuo: características gerais do processo contínuo; balanço material para célula, substrato e produto, em um único estágio com e sem reciclo de células; aplicação do processo contínuo (exemplos).4. Processo descontínuo alimentado: características gerais do processo descontínuo alimentado; balanço material para célula e substrato, com volume variável, empregando vazão constante de alimentação; considerações sobre formação de produtos no processo descontínuo alimentado; aplicação do processo descontínuo alimentado (exemplos).5. Reatores enzimáticos: características gerais dos reatores enzimáticos; aplicação de processos enzimáticos (exemplos).</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Os alunos serão avaliados formalmente por duas provas teóricas. A ponderação das notas será de 50% para cada avaliação, ou seja: Média do período letivo normal = (P1 + P2 )/2</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Os alunos serão avaliados formalmente por duas provas teóricas. A ponderação das notas será de 50% para cada avaliação, ou seja: Média do período letivo normal = (P1 + P2 )/2</t>
+    <t>Serão aprovados os alunos que obtiverem média igual ou maior que 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aprovados os alunos que obtiverem média igual ou maior que 5,0.</t>
+    <t>Aos alunos que não obtiverem média igual ou maior que 5,0, será oferecido um programa de recuperação que será avaliado por uma prova final. Nesse caso, a média final do aluno será: Média final = (média do período letivo normal + nota prova final)/2 Serão aprovados os alunos que obtiverem média igual ou maior que 5,0</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aos alunos que não obtiverem média igual ou maior que 5,0, será oferecido um programa de recuperação que será avaliado por uma prova final. Nesse caso, a média final do aluno será: Média final = (média do período letivo normal + nota prova final)/2 Serão aprovados os alunos que obtiverem média igual ou maior que 5,0</t>
+    <t>1)  Aiba, S., Humphrey, A.E., Millis, N.F. Biochemical Engineering - 2ª Edição- 1973.2) Asenjo A., Merchuk, J.C. Bioreactor System Design-1995.3) Stanbury, D. and Whitaker, A. Principles af Fermentation Technology-1986.4) Lima, U.A., Aquarone, E., Borzani, W. Biotecnologia Industrial. Fundamentos Vol. 1, Engenharia Bioquímica Vol.2, Processos Fermentativos Vol.3. Ed.  Edgard Blucher, São Paulo, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -613,37 +622,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -657,74 +663,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
